--- a/2Trimestre TI/Pasta1 (Recuperado).xlsx
+++ b/2Trimestre TI/Pasta1 (Recuperado).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davi_pintos\Desktop\2 Trimestre TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davi_pintos\Desktop\ti\2Trimestre TI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1)" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,16 @@
     <sheet name="3)" sheetId="3" r:id="rId3"/>
     <sheet name="4)" sheetId="4" r:id="rId4"/>
     <sheet name="5)" sheetId="5" r:id="rId5"/>
+    <sheet name="6)" sheetId="6" r:id="rId6"/>
+    <sheet name="7)" sheetId="7" r:id="rId7"/>
+    <sheet name="8)" sheetId="8" r:id="rId8"/>
+    <sheet name="9)" sheetId="9" r:id="rId9"/>
+    <sheet name="10)" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId11"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
   <si>
     <t>Porca</t>
   </si>
@@ -281,6 +288,357 @@
   </si>
   <si>
     <t>Maior que 1000</t>
+  </si>
+  <si>
+    <t>Receita Bruta</t>
+  </si>
+  <si>
+    <t>Jan-Mar</t>
+  </si>
+  <si>
+    <t>Abr-Jun</t>
+  </si>
+  <si>
+    <t>Jul-Set</t>
+  </si>
+  <si>
+    <t>Out-Dez</t>
+  </si>
+  <si>
+    <t>Total do Ano</t>
+  </si>
+  <si>
+    <t>Despesa Líquida</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Juros</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Propaganda</t>
+  </si>
+  <si>
+    <t>Suprimentos</t>
+  </si>
+  <si>
+    <t>Diversos</t>
+  </si>
+  <si>
+    <t>Total do Trimestre</t>
+  </si>
+  <si>
+    <t>Receita Líquida</t>
+  </si>
+  <si>
+    <t>Situação</t>
+  </si>
+  <si>
+    <t>Valor Acumulado do Ano de despesas</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Idade Candidato</t>
+  </si>
+  <si>
+    <t>Idade Minima</t>
+  </si>
+  <si>
+    <t>Idade Maxima</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Érica</t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Rodovia Anhanguera, km 180</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Leme</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Araras</t>
+  </si>
+  <si>
+    <t>São Benedito</t>
+  </si>
+  <si>
+    <t>R. Antônio de Castro, 362</t>
+  </si>
+  <si>
+    <t>R. Tiradentes, 192</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Av. Orozimbo Maia, 987</t>
+  </si>
+  <si>
+    <t>Jd. Nova Campinas</t>
+  </si>
+  <si>
+    <t>Campinas</t>
+  </si>
+  <si>
+    <t>Ubatuba</t>
+  </si>
+  <si>
+    <t>Rodovia Rio/São Paulo, km 77</t>
+  </si>
+  <si>
+    <t>Praia Grande</t>
+  </si>
+  <si>
+    <t>R. Júlio Mesquita, 66</t>
+  </si>
+  <si>
+    <t>Recife</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Katiane</t>
+  </si>
+  <si>
+    <t>R.5, 78</t>
+  </si>
+  <si>
+    <t>Jd. Europa</t>
+  </si>
+  <si>
+    <t>Rio Claro</t>
+  </si>
+  <si>
+    <t>Lilian</t>
+  </si>
+  <si>
+    <t>R. Lambarildo Peixe, 812</t>
+  </si>
+  <si>
+    <t>Vila Tubarão</t>
+  </si>
+  <si>
+    <t>Ribeirão Preto</t>
+  </si>
+  <si>
+    <t>Lucimara</t>
+  </si>
+  <si>
+    <t>Av. dos Jequitibas, 11</t>
+  </si>
+  <si>
+    <t>Jd. Paulista</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>Av. Ipiranga, 568</t>
+  </si>
+  <si>
+    <t>Ibirapuera</t>
+  </si>
+  <si>
+    <t>Manaus</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>R. Sergipe, 765</t>
+  </si>
+  <si>
+    <t>Botafogo</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Av. Limeira, 98</t>
+  </si>
+  <si>
+    <t>Belvedere</t>
+  </si>
+  <si>
+    <t>Rubens</t>
+  </si>
+  <si>
+    <t>Al. dos Laranjais, 99</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>Sônia</t>
+  </si>
+  <si>
+    <t>R. das Quaresmeiras, 810</t>
+  </si>
+  <si>
+    <t>Vila Cláudia</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Tatiane</t>
+  </si>
+  <si>
+    <t>R. Minas Gerais, 67</t>
+  </si>
+  <si>
+    <t>Parque Industrial</t>
+  </si>
+  <si>
+    <t>Poços de Caldas</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Tabela de Preços</t>
+  </si>
+  <si>
+    <t>Porc. De Lucro</t>
+  </si>
+  <si>
+    <t>Valor do Dólar</t>
+  </si>
+  <si>
+    <t>Estoque</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Venda</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Reais</t>
+  </si>
+  <si>
+    <t>Dolár</t>
+  </si>
+  <si>
+    <t>Borracha</t>
+  </si>
+  <si>
+    <t>Caderno 100 fls</t>
+  </si>
+  <si>
+    <t>Caderno 200 fls</t>
+  </si>
+  <si>
+    <t>Lapiseira</t>
+  </si>
+  <si>
+    <t>Régua 15 cm</t>
+  </si>
+  <si>
+    <t>Régua 30 cm</t>
+  </si>
+  <si>
+    <t>Giz de Cera</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Compasso</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Soma de Estoque</t>
+  </si>
+  <si>
+    <t>Soma de Venda</t>
+  </si>
+  <si>
+    <t>Soma de Custo</t>
+  </si>
+  <si>
+    <t>Soma de Total</t>
+  </si>
+  <si>
+    <t>Soma de Custo2</t>
+  </si>
+  <si>
+    <t>Soma de Venda2</t>
+  </si>
+  <si>
+    <t>Soma de Total2</t>
   </si>
 </sst>
 </file>
@@ -291,8 +649,8 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -333,7 +691,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -722,13 +1080,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -750,12 +1170,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -795,9 +1209,52 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -815,6 +1272,2147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pasta1 (Recuperado).xlsx]10)!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Estoque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$C$3:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Venda</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Custo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$E$3:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.79</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>25.000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.000000000000068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>719.00000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Custo2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$G$3:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.14970059880239522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76946107784431139</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4970059880239521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4910179640718563E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4910179640718563E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.940119760479042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7005988023952097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7964071856287427</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89820359281437134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4850299401197612E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10479041916167664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0209580838323351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Venda2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$H$3:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.16467065868263475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80838323353293418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6467065868263473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4850299401197612E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4850299401197612E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1976047904191618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7964071856287427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9461077844311379</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0479041916167664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9820359281437126E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1347305389221557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.9820359281437128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10)'!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de Total2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10)'!$B$3:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Borracha</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caderno 100 fls</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Caderno 200 fls</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Caneta Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Caneta Vermelha</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cola</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Compasso</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Giz de Cera</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Lapiseira</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Régua 15 cm</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Régua 30 cm</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Totais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10)'!$I$3:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.4850299401197642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7844311377245567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.910179640718553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.94011976047905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.94011976047905</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.748502994011979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5808383233533014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4850299401197589</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.940119760479011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4850299401197571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.970059880239528</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215.26946107784431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-12E8-46B5-A448-3EA8FD07EF59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="345826943"/>
+        <c:axId val="343327375"/>
+        <c:axId val="490059167"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="345826943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343327375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="343327375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345826943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="490059167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343327375"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DAVI HENRY MOREL PINTOS" refreshedDate="45159.370371527781" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B7:I19" sheet="9)"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Produto" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Borracha"/>
+        <s v="Caderno 100 fls"/>
+        <s v="Caderno 200 fls"/>
+        <s v="Caneta Azul"/>
+        <s v="Caneta Vermelha"/>
+        <s v="Lapiseira"/>
+        <s v="Régua 15 cm"/>
+        <s v="Régua 30 cm"/>
+        <s v="Giz de Cera"/>
+        <s v="Cola"/>
+        <s v="Compasso"/>
+        <s v="Totais"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Estoque" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="50" maxValue="4450"/>
+    </cacheField>
+    <cacheField name="Custo" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.15" maxValue="26.79"/>
+    </cacheField>
+    <cacheField name="Venda" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="30"/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24.999999999999993" maxValue="719.00000000000011"/>
+    </cacheField>
+    <cacheField name="Custo2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4910179640718563E-2" maxValue="8.0209580838323351"/>
+    </cacheField>
+    <cacheField name="Venda2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.4850299401197612E-2" maxValue="8.9820359281437128"/>
+    </cacheField>
+    <cacheField name="Total2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.4850299401197571" maxValue="215.26946107784431"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="12">
+  <r>
+    <x v="0"/>
+    <n v="500"/>
+    <n v="0.5"/>
+    <n v="0.55000000000000004"/>
+    <n v="25.000000000000021"/>
+    <n v="0.14970059880239522"/>
+    <n v="0.16467065868263475"/>
+    <n v="7.4850299401197642"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="200"/>
+    <n v="2.57"/>
+    <n v="2.7"/>
+    <n v="26.000000000000068"/>
+    <n v="0.76946107784431139"/>
+    <n v="0.80838323353293418"/>
+    <n v="7.7844311377245567"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="300"/>
+    <n v="5"/>
+    <n v="5.5"/>
+    <n v="150"/>
+    <n v="1.4970059880239521"/>
+    <n v="1.6467065868263473"/>
+    <n v="44.910179640718553"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1000"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <n v="100"/>
+    <n v="4.4910179640718563E-2"/>
+    <n v="7.4850299401197612E-2"/>
+    <n v="29.94011976047905"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1000"/>
+    <n v="0.15"/>
+    <n v="0.25"/>
+    <n v="100"/>
+    <n v="4.4910179640718563E-2"/>
+    <n v="7.4850299401197612E-2"/>
+    <n v="29.94011976047905"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="200"/>
+    <n v="3"/>
+    <n v="3.5"/>
+    <n v="100"/>
+    <n v="0.89820359281437134"/>
+    <n v="1.0479041916167664"/>
+    <n v="29.940119760479011"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="500"/>
+    <n v="0.25"/>
+    <n v="0.3"/>
+    <n v="24.999999999999993"/>
+    <n v="7.4850299401197612E-2"/>
+    <n v="8.9820359281437126E-2"/>
+    <n v="7.4850299401197571"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="500"/>
+    <n v="0.35"/>
+    <n v="0.45"/>
+    <n v="50.000000000000014"/>
+    <n v="0.10479041916167664"/>
+    <n v="0.1347305389221557"/>
+    <n v="14.970059880239528"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="50"/>
+    <n v="6"/>
+    <n v="6.5"/>
+    <n v="25"/>
+    <n v="1.7964071856287427"/>
+    <n v="1.9461077844311379"/>
+    <n v="7.4850299401197589"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="100"/>
+    <n v="3.14"/>
+    <n v="4"/>
+    <n v="85.999999999999986"/>
+    <n v="0.940119760479042"/>
+    <n v="1.1976047904191618"/>
+    <n v="25.748502994011979"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="100"/>
+    <n v="5.68"/>
+    <n v="6"/>
+    <n v="32.000000000000028"/>
+    <n v="1.7005988023952097"/>
+    <n v="1.7964071856287427"/>
+    <n v="9.5808383233533014"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4450"/>
+    <n v="26.79"/>
+    <n v="30"/>
+    <n v="719.00000000000011"/>
+    <n v="8.0209580838323351"/>
+    <n v="8.9820359281437128"/>
+    <n v="215.26946107784431"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B2:I15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+  </colItems>
+  <dataFields count="7">
+    <dataField name="Soma de Estoque" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Venda" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Custo" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Custo2" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Venda2" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Soma de Total2" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1148,19 +3746,19 @@
         <v>5696</v>
       </c>
       <c r="G3" s="13">
-        <f>SUM(D3:F3)</f>
+        <f t="shared" ref="G3:G8" si="0">SUM(D3:F3)</f>
         <v>15236</v>
       </c>
       <c r="H3" s="13">
-        <f>MAX(D3:F3)</f>
+        <f t="shared" ref="H3:H8" si="1">MAX(D3:F3)</f>
         <v>5696</v>
       </c>
       <c r="I3" s="13">
-        <f>MIN(D3:F3)</f>
+        <f t="shared" ref="I3:I8" si="2">MIN(D3:F3)</f>
         <v>4500</v>
       </c>
       <c r="J3" s="19">
-        <f>AVERAGE(D3:F3)</f>
+        <f t="shared" ref="J3:J8" si="3">AVERAGE(D3:F3)</f>
         <v>5078.666666666667</v>
       </c>
     </row>
@@ -1181,19 +3779,19 @@
         <v>7910</v>
       </c>
       <c r="G4" s="13">
-        <f>SUM(D4:F4)</f>
+        <f t="shared" si="0"/>
         <v>21160</v>
       </c>
       <c r="H4" s="13">
-        <f>MAX(D4:F4)</f>
+        <f t="shared" si="1"/>
         <v>7910</v>
       </c>
       <c r="I4" s="13">
-        <f>MIN(D4:F4)</f>
+        <f t="shared" si="2"/>
         <v>6250</v>
       </c>
       <c r="J4" s="19">
-        <f>AVERAGE(D4:F4)</f>
+        <f t="shared" si="3"/>
         <v>7053.333333333333</v>
       </c>
     </row>
@@ -1214,19 +3812,19 @@
         <v>4176</v>
       </c>
       <c r="G5" s="13">
-        <f>SUM(D5:F5)</f>
+        <f t="shared" si="0"/>
         <v>11172</v>
       </c>
       <c r="H5" s="13">
-        <f>MAX(D5:F5)</f>
+        <f t="shared" si="1"/>
         <v>4176</v>
       </c>
       <c r="I5" s="13">
-        <f>MIN(D5:F5)</f>
+        <f t="shared" si="2"/>
         <v>3300</v>
       </c>
       <c r="J5" s="19">
-        <f>AVERAGE(D5:F5)</f>
+        <f t="shared" si="3"/>
         <v>3724</v>
       </c>
     </row>
@@ -1247,19 +3845,19 @@
         <v>10125</v>
       </c>
       <c r="G6" s="13">
-        <f>SUM(D6:F6)</f>
+        <f t="shared" si="0"/>
         <v>26815</v>
       </c>
       <c r="H6" s="13">
-        <f>MAX(D6:F6)</f>
+        <f t="shared" si="1"/>
         <v>10125</v>
       </c>
       <c r="I6" s="13">
-        <f>MIN(D6:F6)</f>
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
       <c r="J6" s="19">
-        <f>AVERAGE(D6:F6)</f>
+        <f t="shared" si="3"/>
         <v>8938.3333333333339</v>
       </c>
     </row>
@@ -1280,19 +3878,19 @@
         <v>5676</v>
       </c>
       <c r="G7" s="13">
-        <f>SUM(D7:F7)</f>
+        <f t="shared" si="0"/>
         <v>15334</v>
       </c>
       <c r="H7" s="13">
-        <f>MAX(D7:F7)</f>
+        <f t="shared" si="1"/>
         <v>5676</v>
       </c>
       <c r="I7" s="13">
-        <f>MIN(D7:F7)</f>
+        <f t="shared" si="2"/>
         <v>4557</v>
       </c>
       <c r="J7" s="19">
-        <f>AVERAGE(D7:F7)</f>
+        <f t="shared" si="3"/>
         <v>5111.333333333333</v>
       </c>
     </row>
@@ -1313,19 +3911,19 @@
         <v>4113</v>
       </c>
       <c r="G8" s="14">
-        <f>SUM(D8:F8)</f>
+        <f t="shared" si="0"/>
         <v>11013</v>
       </c>
       <c r="H8" s="14">
-        <f>MAX(D8:F8)</f>
+        <f t="shared" si="1"/>
         <v>4113</v>
       </c>
       <c r="I8" s="14">
-        <f>MIN(D8:F8)</f>
+        <f t="shared" si="2"/>
         <v>3260</v>
       </c>
       <c r="J8" s="20">
-        <f>AVERAGE(D8:F8)</f>
+        <f t="shared" si="3"/>
         <v>3671</v>
       </c>
     </row>
@@ -1333,10 +3931,10 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="17">
         <f>SUM(D3:D8)</f>
         <v>29867</v>
@@ -1350,255 +3948,255 @@
         <v>37696</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="41"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="39" t="s">
+      <c r="J12" s="37" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <v>1</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>6265</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>6954</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>7858</v>
       </c>
-      <c r="G13" s="35">
-        <f>SUM(D13:F13)</f>
+      <c r="G13" s="33">
+        <f t="shared" ref="G13:G18" si="4">SUM(D13:F13)</f>
         <v>21077</v>
       </c>
-      <c r="H13" s="35">
-        <f>SUM(D13:F13)</f>
+      <c r="H13" s="33">
+        <f t="shared" ref="H13:H18" si="5">SUM(D13:F13)</f>
         <v>21077</v>
       </c>
-      <c r="I13" s="35">
-        <f>MIN(D13:F13)</f>
+      <c r="I13" s="33">
+        <f t="shared" ref="I13:I18" si="6">MIN(D13:F13)</f>
         <v>6265</v>
       </c>
-      <c r="J13" s="36">
-        <f>AVERAGE(D13:F13)</f>
+      <c r="J13" s="34">
+        <f t="shared" ref="J13:J18" si="7">AVERAGE(D13:F13)</f>
         <v>7025.666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="27">
+      <c r="B14" s="25">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="21">
         <v>8701</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>9658</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>10197</v>
       </c>
-      <c r="G14" s="23">
-        <f>SUM(D14:F14)</f>
+      <c r="G14" s="21">
+        <f t="shared" si="4"/>
         <v>28556</v>
       </c>
-      <c r="H14" s="23">
-        <f>SUM(D14:F14)</f>
+      <c r="H14" s="21">
+        <f t="shared" si="5"/>
         <v>28556</v>
       </c>
-      <c r="I14" s="23">
-        <f>MIN(D14:F14)</f>
+      <c r="I14" s="21">
+        <f t="shared" si="6"/>
         <v>8701</v>
       </c>
-      <c r="J14" s="28">
-        <f>AVERAGE(D14:F14)</f>
+      <c r="J14" s="26">
+        <f t="shared" si="7"/>
         <v>9518.6666666666661</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="27">
+      <c r="B15" s="25">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="21">
         <v>4569</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>5099</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="21">
         <v>5769</v>
       </c>
-      <c r="G15" s="23">
-        <f>SUM(D15:F15)</f>
+      <c r="G15" s="21">
+        <f t="shared" si="4"/>
         <v>15437</v>
       </c>
-      <c r="H15" s="23">
-        <f>SUM(D15:F15)</f>
+      <c r="H15" s="21">
+        <f t="shared" si="5"/>
         <v>15437</v>
       </c>
-      <c r="I15" s="23">
-        <f>MIN(D15:F15)</f>
+      <c r="I15" s="21">
+        <f t="shared" si="6"/>
         <v>4569</v>
       </c>
-      <c r="J15" s="28">
-        <f>AVERAGE(D15:F15)</f>
+      <c r="J15" s="26">
+        <f t="shared" si="7"/>
         <v>5145.666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="27">
+      <c r="B16" s="25">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="21">
         <v>12341</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>12365</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="21">
         <v>13969</v>
       </c>
-      <c r="G16" s="23">
-        <f>SUM(D16:F16)</f>
+      <c r="G16" s="21">
+        <f t="shared" si="4"/>
         <v>38675</v>
       </c>
-      <c r="H16" s="23">
-        <f>SUM(D16:F16)</f>
+      <c r="H16" s="21">
+        <f t="shared" si="5"/>
         <v>38675</v>
       </c>
-      <c r="I16" s="23">
-        <f>MIN(D16:F16)</f>
+      <c r="I16" s="21">
+        <f t="shared" si="6"/>
         <v>12341</v>
       </c>
-      <c r="J16" s="28">
-        <f>AVERAGE(D16:F16)</f>
+      <c r="J16" s="26">
+        <f t="shared" si="7"/>
         <v>12891.666666666666</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="27">
+      <c r="B17" s="25">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="21">
         <v>6344</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>7042</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="21">
         <v>7957</v>
       </c>
-      <c r="G17" s="23">
-        <f>SUM(D17:F17)</f>
+      <c r="G17" s="21">
+        <f t="shared" si="4"/>
         <v>21343</v>
       </c>
-      <c r="H17" s="23">
-        <f>SUM(D17:F17)</f>
+      <c r="H17" s="21">
+        <f t="shared" si="5"/>
         <v>21343</v>
       </c>
-      <c r="I17" s="23">
-        <f>MIN(D17:F17)</f>
+      <c r="I17" s="21">
+        <f t="shared" si="6"/>
         <v>6344</v>
       </c>
-      <c r="J17" s="28">
-        <f>AVERAGE(D17:F17)</f>
+      <c r="J17" s="26">
+        <f t="shared" si="7"/>
         <v>7114.333333333333</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <v>6</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="29">
         <v>4525</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="29">
         <v>5022</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>5671</v>
       </c>
-      <c r="G18" s="31">
-        <f>SUM(D18:F18)</f>
+      <c r="G18" s="29">
+        <f t="shared" si="4"/>
         <v>15218</v>
       </c>
-      <c r="H18" s="31">
-        <f>SUM(D18:F18)</f>
+      <c r="H18" s="29">
+        <f t="shared" si="5"/>
         <v>15218</v>
       </c>
-      <c r="I18" s="31">
-        <f>MIN(D18:F18)</f>
+      <c r="I18" s="29">
+        <f t="shared" si="6"/>
         <v>4525</v>
       </c>
-      <c r="J18" s="32">
-        <f>AVERAGE(D18:F18)</f>
+      <c r="J18" s="30">
+        <f t="shared" si="7"/>
         <v>5072.666666666667</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="23">
+      <c r="C20" s="42"/>
+      <c r="D20" s="21">
         <f>SUM(D13:D18)</f>
         <v>42745</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <f>SUM(E13:E18)</f>
         <v>46140</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="21">
         <f>SUM(F13:F18)</f>
         <v>51421</v>
       </c>
@@ -1608,23 +4206,23 @@
       <c r="J20" s="15"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="23">
+      <c r="C22" s="40"/>
+      <c r="D22" s="21">
         <f>SUM(D10,D20)</f>
         <v>72612</v>
       </c>
-      <c r="E22" s="23">
-        <f t="shared" ref="E22:F22" si="0">SUM(E10,E20)</f>
+      <c r="E22" s="21">
+        <f t="shared" ref="E22:F22" si="8">SUM(E10,E20)</f>
         <v>79307</v>
       </c>
-      <c r="F22" s="23">
-        <f t="shared" si="0"/>
+      <c r="F22" s="21">
+        <f t="shared" si="8"/>
         <v>89117</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="21">
         <f>SUM(G13:G18, G3:G8)</f>
         <v>241036</v>
       </c>
@@ -1635,6 +4233,399 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="91">
+        <v>500</v>
+      </c>
+      <c r="D3" s="91">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E3" s="91">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="91">
+        <v>25.000000000000021</v>
+      </c>
+      <c r="G3" s="91">
+        <v>0.14970059880239522</v>
+      </c>
+      <c r="H3" s="91">
+        <v>0.16467065868263475</v>
+      </c>
+      <c r="I3" s="91">
+        <v>7.4850299401197642</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="91">
+        <v>200</v>
+      </c>
+      <c r="D4" s="91">
+        <v>2.7</v>
+      </c>
+      <c r="E4" s="91">
+        <v>2.57</v>
+      </c>
+      <c r="F4" s="91">
+        <v>26.000000000000068</v>
+      </c>
+      <c r="G4" s="91">
+        <v>0.76946107784431139</v>
+      </c>
+      <c r="H4" s="91">
+        <v>0.80838323353293418</v>
+      </c>
+      <c r="I4" s="91">
+        <v>7.7844311377245567</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="90" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="91">
+        <v>300</v>
+      </c>
+      <c r="D5" s="91">
+        <v>5.5</v>
+      </c>
+      <c r="E5" s="91">
+        <v>5</v>
+      </c>
+      <c r="F5" s="91">
+        <v>150</v>
+      </c>
+      <c r="G5" s="91">
+        <v>1.4970059880239521</v>
+      </c>
+      <c r="H5" s="91">
+        <v>1.6467065868263473</v>
+      </c>
+      <c r="I5" s="91">
+        <v>44.910179640718553</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="91">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="91">
+        <v>100</v>
+      </c>
+      <c r="G6" s="91">
+        <v>4.4910179640718563E-2</v>
+      </c>
+      <c r="H6" s="91">
+        <v>7.4850299401197612E-2</v>
+      </c>
+      <c r="I6" s="91">
+        <v>29.94011976047905</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="91">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="91">
+        <v>100</v>
+      </c>
+      <c r="G7" s="91">
+        <v>4.4910179640718563E-2</v>
+      </c>
+      <c r="H7" s="91">
+        <v>7.4850299401197612E-2</v>
+      </c>
+      <c r="I7" s="91">
+        <v>29.94011976047905</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="91">
+        <v>100</v>
+      </c>
+      <c r="D8" s="91">
+        <v>4</v>
+      </c>
+      <c r="E8" s="91">
+        <v>3.14</v>
+      </c>
+      <c r="F8" s="91">
+        <v>85.999999999999986</v>
+      </c>
+      <c r="G8" s="91">
+        <v>0.940119760479042</v>
+      </c>
+      <c r="H8" s="91">
+        <v>1.1976047904191618</v>
+      </c>
+      <c r="I8" s="91">
+        <v>25.748502994011979</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="91">
+        <v>100</v>
+      </c>
+      <c r="D9" s="91">
+        <v>6</v>
+      </c>
+      <c r="E9" s="91">
+        <v>5.68</v>
+      </c>
+      <c r="F9" s="91">
+        <v>32.000000000000028</v>
+      </c>
+      <c r="G9" s="91">
+        <v>1.7005988023952097</v>
+      </c>
+      <c r="H9" s="91">
+        <v>1.7964071856287427</v>
+      </c>
+      <c r="I9" s="91">
+        <v>9.5808383233533014</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="91">
+        <v>50</v>
+      </c>
+      <c r="D10" s="91">
+        <v>6.5</v>
+      </c>
+      <c r="E10" s="91">
+        <v>6</v>
+      </c>
+      <c r="F10" s="91">
+        <v>25</v>
+      </c>
+      <c r="G10" s="91">
+        <v>1.7964071856287427</v>
+      </c>
+      <c r="H10" s="91">
+        <v>1.9461077844311379</v>
+      </c>
+      <c r="I10" s="91">
+        <v>7.4850299401197589</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="91">
+        <v>200</v>
+      </c>
+      <c r="D11" s="91">
+        <v>3.5</v>
+      </c>
+      <c r="E11" s="91">
+        <v>3</v>
+      </c>
+      <c r="F11" s="91">
+        <v>100</v>
+      </c>
+      <c r="G11" s="91">
+        <v>0.89820359281437134</v>
+      </c>
+      <c r="H11" s="91">
+        <v>1.0479041916167664</v>
+      </c>
+      <c r="I11" s="91">
+        <v>29.940119760479011</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="91">
+        <v>500</v>
+      </c>
+      <c r="D12" s="91">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="91">
+        <v>24.999999999999993</v>
+      </c>
+      <c r="G12" s="91">
+        <v>7.4850299401197612E-2</v>
+      </c>
+      <c r="H12" s="91">
+        <v>8.9820359281437126E-2</v>
+      </c>
+      <c r="I12" s="91">
+        <v>7.4850299401197571</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="91">
+        <v>500</v>
+      </c>
+      <c r="D13" s="91">
+        <v>0.45</v>
+      </c>
+      <c r="E13" s="91">
+        <v>0.35</v>
+      </c>
+      <c r="F13" s="91">
+        <v>50.000000000000014</v>
+      </c>
+      <c r="G13" s="91">
+        <v>0.10479041916167664</v>
+      </c>
+      <c r="H13" s="91">
+        <v>0.1347305389221557</v>
+      </c>
+      <c r="I13" s="91">
+        <v>14.970059880239528</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="91">
+        <v>4450</v>
+      </c>
+      <c r="D14" s="91">
+        <v>30</v>
+      </c>
+      <c r="E14" s="91">
+        <v>26.79</v>
+      </c>
+      <c r="F14" s="91">
+        <v>719.00000000000011</v>
+      </c>
+      <c r="G14" s="91">
+        <v>8.0209580838323351</v>
+      </c>
+      <c r="H14" s="91">
+        <v>8.9820359281437128</v>
+      </c>
+      <c r="I14" s="91">
+        <v>215.26946107784431</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="91">
+        <v>8900</v>
+      </c>
+      <c r="D15" s="91">
+        <v>60</v>
+      </c>
+      <c r="E15" s="91">
+        <v>53.58</v>
+      </c>
+      <c r="F15" s="91">
+        <v>1438.0000000000002</v>
+      </c>
+      <c r="G15" s="91">
+        <v>16.041916167664674</v>
+      </c>
+      <c r="H15" s="91">
+        <v>17.964071856287426</v>
+      </c>
+      <c r="I15" s="91">
+        <v>430.53892215568862</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1672,250 +4663,250 @@
     </row>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="47">
         <v>500</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="47">
         <v>750</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="47">
         <v>800</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="47">
         <v>700</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="47">
         <v>654</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="48">
         <v>700</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="51"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="49"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>10</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="44">
         <v>15</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="44">
         <v>15</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="44">
         <v>12</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="44">
         <v>12</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="45">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <v>50</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="44">
         <v>60</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="44">
         <v>54</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="44">
         <v>55</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="44">
         <v>54</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="45">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>300</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="44">
         <v>250</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="44">
         <v>300</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="44">
         <v>300</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="44">
         <v>200</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="45">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="44">
         <v>40</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="44">
         <v>40</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="44">
         <v>40</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="44">
         <v>40</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="44">
         <v>40</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="45">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="44">
         <v>10</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="44">
         <v>15</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>14</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="44">
         <v>15</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="44">
         <v>20</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="45">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="44">
         <v>120</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="44">
         <v>150</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="44">
         <v>130</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="44">
         <v>200</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="44">
         <v>150</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="45">
         <v>190</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="44">
         <v>50</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="44">
         <v>60</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="44">
         <v>65</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="44">
         <v>70</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="44">
         <v>65</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="45">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="51">
         <v>145</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="51">
         <v>145</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="51">
         <v>145</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="51">
         <v>145</v>
       </c>
-      <c r="G14" s="53">
+      <c r="G14" s="51">
         <v>100</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="52">
         <v>145</v>
       </c>
     </row>
@@ -1924,27 +4915,27 @@
       <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="53">
         <f>SUM(C7:C14)</f>
         <v>725</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="53">
         <f t="shared" ref="D16:H16" si="0">SUM(D7:D14)</f>
         <v>735</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="53">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="53">
         <f t="shared" si="0"/>
         <v>837</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="53">
         <f t="shared" si="0"/>
         <v>641</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="54">
         <f t="shared" si="0"/>
         <v>758</v>
       </c>
@@ -1954,27 +4945,27 @@
       <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="53">
         <f>C4-C16</f>
         <v>-225</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="53">
         <f t="shared" ref="D18:H18" si="1">D4-D16</f>
         <v>15</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="53">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <f t="shared" si="1"/>
         <v>-137</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="53">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="54">
         <f t="shared" si="1"/>
         <v>-58</v>
       </c>
@@ -2007,265 +4998,265 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="27">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="44">
         <v>853</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="55">
         <v>0.1</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <v>0.09</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="44">
         <f>D3*E3</f>
         <v>85.300000000000011</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="44">
         <f>D3*F3</f>
         <v>76.77</v>
       </c>
-      <c r="I3" s="47">
+      <c r="I3" s="45">
         <f>D3+H3-G3</f>
         <v>844.47</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="27">
+      <c r="B4" s="25">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="44">
         <v>951</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="55">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="56">
         <v>0.08</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="44">
         <f t="shared" ref="G4:G10" si="0">D4*E4</f>
         <v>95.004900000000006</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="44">
         <f t="shared" ref="H4:H10" si="1">D4*F4</f>
         <v>76.08</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="45">
         <f t="shared" ref="I4:I10" si="2">D4+H4-G4</f>
         <v>932.07509999999991</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="44">
         <v>456</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="55">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="56">
         <v>0.06</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="44">
         <f t="shared" si="0"/>
         <v>39.398400000000002</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="44">
         <f t="shared" si="1"/>
         <v>27.36</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="45">
         <f t="shared" si="2"/>
         <v>443.96160000000003</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="44">
         <v>500</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="55">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="56">
         <v>0.06</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="44">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="44">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="45">
         <f t="shared" si="2"/>
         <v>487.5</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="44">
         <v>850</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="55">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="56">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="44">
         <f t="shared" si="0"/>
         <v>76.414999999999992</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="44">
         <f t="shared" si="1"/>
         <v>59.500000000000007</v>
       </c>
-      <c r="I7" s="47">
+      <c r="I7" s="45">
         <f t="shared" si="2"/>
         <v>833.08500000000004</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="44">
         <v>459</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="55">
         <v>6.25E-2</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="56">
         <v>0.05</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="44">
         <f t="shared" si="0"/>
         <v>28.6875</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="44">
         <f t="shared" si="1"/>
         <v>22.950000000000003</v>
       </c>
-      <c r="I8" s="47">
+      <c r="I8" s="45">
         <f t="shared" si="2"/>
         <v>453.26249999999999</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="44">
         <v>478</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="56">
         <v>0.05</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="44">
         <f t="shared" si="0"/>
         <v>34.0336</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="44">
         <f t="shared" si="1"/>
         <v>23.900000000000002</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="45">
         <f t="shared" si="2"/>
         <v>467.8664</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="51">
         <v>658</v>
       </c>
-      <c r="E10" s="59">
+      <c r="E10" s="57">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <v>0.04</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="51">
         <f t="shared" si="0"/>
         <v>39.414200000000001</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="51">
         <f t="shared" si="1"/>
         <v>26.32</v>
       </c>
-      <c r="I10" s="54">
+      <c r="I10" s="52">
         <f t="shared" si="2"/>
         <v>644.9058</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="61"/>
+      <c r="D13" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2278,7 +5269,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,159 +5281,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="62">
+      <c r="C1" s="74">
         <v>2.94</v>
       </c>
     </row>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="24" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>500</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="74">
         <v>0.15</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="74">
         <f>C4*D4</f>
         <v>75</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="75">
         <f>E4/C1</f>
         <v>25.510204081632654</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>750</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="74">
         <v>0.15</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="74">
         <f t="shared" ref="E5:E10" si="0">C5*D5</f>
         <v>112.5</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="75">
         <f>E5/C1</f>
         <v>38.265306122448983</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>250</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="74">
         <v>10</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="74">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="75">
         <f>E6/C1</f>
         <v>850.34013605442181</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>310</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="74">
         <v>0.5</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="74">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="75">
         <f>E7/C1</f>
         <v>52.721088435374149</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>500</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="74">
         <v>0.1</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="74">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="75">
         <f>E8/C1</f>
         <v>17.006802721088437</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1500</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="74">
         <v>2.5</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="74">
         <f t="shared" si="0"/>
         <v>3750</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="75">
         <f>E9/C1</f>
         <v>1275.5102040816328</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="28">
         <v>190</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="76">
         <v>6</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="76">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="77">
         <f>E10/C1</f>
         <v>387.75510204081633</v>
       </c>
@@ -2454,120 +5446,188 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="63" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="64">
         <v>900</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>IF(C3&lt;=1000,C3*C12, C3*C13)</f>
         <v>360</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="65">
         <f>SUM(C3:D3)</f>
         <v>1260</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="64">
         <v>1200</v>
       </c>
+      <c r="D4" s="2">
+        <f>IF(C4&lt;=1000,C4*C12, C4*C13)</f>
+        <v>360</v>
+      </c>
+      <c r="E4" s="65">
+        <f t="shared" ref="E4:E10" si="0">SUM(C4:D4)</f>
+        <v>1560</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="64">
         <v>1500</v>
       </c>
+      <c r="D5" s="2">
+        <f>IF(C5&lt;=1000,C5*C12, C5*C13)</f>
+        <v>450</v>
+      </c>
+      <c r="E5" s="65">
+        <f t="shared" si="0"/>
+        <v>1950</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="64">
         <v>2000</v>
       </c>
+      <c r="D6" s="2">
+        <f>IF(C6&lt;=1000,C6*C12, C6*C13)</f>
+        <v>600</v>
+      </c>
+      <c r="E6" s="65">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="64">
         <v>1400</v>
       </c>
+      <c r="D7" s="2">
+        <f>IF(C7&lt;=1000,C7*C12, C7*C13)</f>
+        <v>420</v>
+      </c>
+      <c r="E7" s="65">
+        <f t="shared" si="0"/>
+        <v>1820</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="64">
         <v>990</v>
       </c>
+      <c r="D8" s="2">
+        <f>IF(C8&lt;=1000,C8*C12, C8*C13)</f>
+        <v>396</v>
+      </c>
+      <c r="E8" s="65">
+        <f t="shared" si="0"/>
+        <v>1386</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="64">
         <v>854</v>
       </c>
+      <c r="D9" s="2">
+        <f>IF(C9&lt;=1000,C9*C12, C9*C13)</f>
+        <v>341.6</v>
+      </c>
+      <c r="E9" s="65">
+        <f t="shared" si="0"/>
+        <v>1195.5999999999999</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="71">
         <v>1100</v>
       </c>
+      <c r="D10" s="72">
+        <f>IF(C10&lt;=1000,C10*C12, C10*C13)</f>
+        <v>330</v>
+      </c>
+      <c r="E10" s="73">
+        <f t="shared" si="0"/>
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="66"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="69">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D12" s="62"/>
+      <c r="E12" s="63"/>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="67">
         <v>0.3</v>
       </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="68"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D10">
@@ -2577,4 +5637,1219 @@
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="78">
+        <v>140000</v>
+      </c>
+      <c r="D3" s="60">
+        <v>165000</v>
+      </c>
+      <c r="E3" s="60">
+        <v>208000</v>
+      </c>
+      <c r="F3" s="60">
+        <v>280000</v>
+      </c>
+      <c r="G3" s="60">
+        <f>SUM(C3:F3)</f>
+        <v>793000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="60">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="60">
+        <v>26000</v>
+      </c>
+      <c r="E6" s="60">
+        <v>33800</v>
+      </c>
+      <c r="F6" s="60">
+        <v>43940</v>
+      </c>
+      <c r="G6" s="60">
+        <f>SUM(C6:F6)</f>
+        <v>123740</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="60">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="60">
+        <v>15600</v>
+      </c>
+      <c r="E7" s="60">
+        <v>20280</v>
+      </c>
+      <c r="F7" s="60">
+        <v>26364</v>
+      </c>
+      <c r="G7" s="60">
+        <f t="shared" ref="G7:G11" si="0">SUM(C7:F7)</f>
+        <v>82244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="60">
+        <v>12000</v>
+      </c>
+      <c r="D8" s="60">
+        <v>20930</v>
+      </c>
+      <c r="E8" s="60">
+        <v>27209</v>
+      </c>
+      <c r="F8" s="60">
+        <v>35371.699999999997</v>
+      </c>
+      <c r="G8" s="60">
+        <f t="shared" si="0"/>
+        <v>95510.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="60">
+        <v>16100</v>
+      </c>
+      <c r="D9" s="60">
+        <v>28870</v>
+      </c>
+      <c r="E9" s="60">
+        <v>33631</v>
+      </c>
+      <c r="F9" s="60">
+        <v>43720.3</v>
+      </c>
+      <c r="G9" s="60">
+        <f t="shared" si="0"/>
+        <v>122321.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="60">
+        <v>19900</v>
+      </c>
+      <c r="D10" s="60">
+        <v>39000</v>
+      </c>
+      <c r="E10" s="60">
+        <v>50700</v>
+      </c>
+      <c r="F10" s="60">
+        <v>65910</v>
+      </c>
+      <c r="G10" s="60">
+        <f t="shared" si="0"/>
+        <v>175510</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="60">
+        <v>25000</v>
+      </c>
+      <c r="D11" s="60">
+        <v>32500</v>
+      </c>
+      <c r="E11" s="60">
+        <v>42250</v>
+      </c>
+      <c r="F11" s="60">
+        <v>54925</v>
+      </c>
+      <c r="G11" s="60">
+        <f t="shared" si="0"/>
+        <v>154675</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="60">
+        <f>SUM(C6:C11)</f>
+        <v>113000</v>
+      </c>
+      <c r="D13" s="60">
+        <f t="shared" ref="D13:F13" si="1">SUM(D6:D11)</f>
+        <v>162900</v>
+      </c>
+      <c r="E13" s="60">
+        <f t="shared" si="1"/>
+        <v>207870</v>
+      </c>
+      <c r="F13" s="60">
+        <f t="shared" si="1"/>
+        <v>270231</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="78">
+        <f>C3-C13</f>
+        <v>27000</v>
+      </c>
+      <c r="D14" s="78">
+        <f t="shared" ref="D14:F14" si="2">D3-D13</f>
+        <v>2100</v>
+      </c>
+      <c r="E14" s="78">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="F14" s="78">
+        <f t="shared" si="2"/>
+        <v>9769</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="str">
+        <f>IF(C14&lt;1000,"Prejuízo Total",IF(C14&lt;5000,"Lucro Médio","Lucro Total"))</f>
+        <v>Lucro Total</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:F15" si="3">IF(D14&lt;1000,"Prejuízo Total",IF(D14&lt;5000,"Lucro Médio","Lucro Total"))</f>
+        <v>Lucro Médio</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>Prejuízo Total</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="3"/>
+        <v>Lucro Total</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="60">
+        <f>SUM(G6:G11)</f>
+        <v>754001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="18">
+        <v>4665</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4654</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(C3=D3,"Igual",IF(C3&lt;D3,"Maior","Menor"))</f>
+        <v>Menor</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="18">
+        <v>16574</v>
+      </c>
+      <c r="D4" s="18">
+        <v>24348</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E8" si="0">IF(C4=D4,"Igual",IF(C4&lt;D4,"Maior","Menor"))</f>
+        <v>Maior</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1654</v>
+      </c>
+      <c r="D5" s="18">
+        <v>6468</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="18">
+        <v>654</v>
+      </c>
+      <c r="D6" s="18">
+        <v>654</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Igual</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(AND(H3&lt;H2&lt;H4),"Dentro","Fora")</f>
+        <v>Fora</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="18">
+        <v>413</v>
+      </c>
+      <c r="D7" s="18">
+        <v>434</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Maior</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="18">
+        <v>65765</v>
+      </c>
+      <c r="D8" s="18">
+        <v>54646</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Menor</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="84" t="str">
+        <f>VLOOKUP(B3,B2:F17,1,FALSE)</f>
+        <v>Ana</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="82" t="str">
+        <f>VLOOKUP(B3,B2:F17,2,FALSE)</f>
+        <v>Rodovia Anhanguera, km 180</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="82" t="str">
+        <f>VLOOKUP(B3,B2:F17,3,FALSE)</f>
+        <v>Centro</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="82" t="str">
+        <f>VLOOKUP(B15,B2:F17,4,FALSE)</f>
+        <v>Rio de Janeiro</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="83" t="str">
+        <f>VLOOKUP(B15,B2:F17,5,FALSE)</f>
+        <v>RJ</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="85">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="18">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="86"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="3">
+        <v>500</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F8" s="21">
+        <f>C8*(E8-D8)</f>
+        <v>25.000000000000021</v>
+      </c>
+      <c r="G8" s="21">
+        <f>D8/C4</f>
+        <v>0.14970059880239522</v>
+      </c>
+      <c r="H8" s="21">
+        <f>E8/C4</f>
+        <v>0.16467065868263475</v>
+      </c>
+      <c r="I8" s="26">
+        <f>(H8-G8)*C8</f>
+        <v>7.4850299401197642</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="3">
+        <v>200</v>
+      </c>
+      <c r="D9" s="21">
+        <v>2.57</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2.7</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" ref="F9:F18" si="0">C9*(E9-D9)</f>
+        <v>26.000000000000068</v>
+      </c>
+      <c r="G9" s="21">
+        <f>D9/C4</f>
+        <v>0.76946107784431139</v>
+      </c>
+      <c r="H9" s="21">
+        <f>E9/C4</f>
+        <v>0.80838323353293418</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" ref="I9:I18" si="1">(H9-G9)*C9</f>
+        <v>7.7844311377245567</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="3">
+        <v>300</v>
+      </c>
+      <c r="D10" s="21">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G10" s="21">
+        <f>D10/C4</f>
+        <v>1.4970059880239521</v>
+      </c>
+      <c r="H10" s="21">
+        <f>E10/C4</f>
+        <v>1.6467065868263473</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="1"/>
+        <v>44.910179640718553</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="21">
+        <f>D11/C4</f>
+        <v>4.4910179640718563E-2</v>
+      </c>
+      <c r="H11" s="21">
+        <f>E11/C4</f>
+        <v>7.4850299401197612E-2</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="1"/>
+        <v>29.94011976047905</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F12" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="21">
+        <f>D12/C4</f>
+        <v>4.4910179640718563E-2</v>
+      </c>
+      <c r="H12" s="21">
+        <f>E12/C4</f>
+        <v>7.4850299401197612E-2</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="1"/>
+        <v>29.94011976047905</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="3">
+        <v>200</v>
+      </c>
+      <c r="D13" s="21">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G13" s="21">
+        <f>D13/C4</f>
+        <v>0.89820359281437134</v>
+      </c>
+      <c r="H13" s="21">
+        <f>E13/C4</f>
+        <v>1.0479041916167664</v>
+      </c>
+      <c r="I13" s="26">
+        <f t="shared" si="1"/>
+        <v>29.940119760479011</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="3">
+        <v>500</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="21">
+        <f t="shared" si="0"/>
+        <v>24.999999999999993</v>
+      </c>
+      <c r="G14" s="21">
+        <f>D14/C4</f>
+        <v>7.4850299401197612E-2</v>
+      </c>
+      <c r="H14" s="21">
+        <f>E14/C4</f>
+        <v>8.9820359281437126E-2</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" si="1"/>
+        <v>7.4850299401197571</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="3">
+        <v>500</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" si="0"/>
+        <v>50.000000000000014</v>
+      </c>
+      <c r="G15" s="21">
+        <f>D15/C4</f>
+        <v>0.10479041916167664</v>
+      </c>
+      <c r="H15" s="21">
+        <f>E15/C4</f>
+        <v>0.1347305389221557</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="1"/>
+        <v>14.970059880239528</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="3">
+        <v>50</v>
+      </c>
+      <c r="D16" s="21">
+        <v>6</v>
+      </c>
+      <c r="E16" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G16" s="21">
+        <f>D16/C4</f>
+        <v>1.7964071856287427</v>
+      </c>
+      <c r="H16" s="21">
+        <f>E16/C4</f>
+        <v>1.9461077844311379</v>
+      </c>
+      <c r="I16" s="26">
+        <f t="shared" si="1"/>
+        <v>7.4850299401197589</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="3">
+        <v>100</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3.14</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>85.999999999999986</v>
+      </c>
+      <c r="G17" s="21">
+        <f>D17/C4</f>
+        <v>0.940119760479042</v>
+      </c>
+      <c r="H17" s="21">
+        <f>E17/C4</f>
+        <v>1.1976047904191618</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="1"/>
+        <v>25.748502994011979</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="3">
+        <v>100</v>
+      </c>
+      <c r="D18" s="21">
+        <v>5.68</v>
+      </c>
+      <c r="E18" s="21">
+        <v>6</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>32.000000000000028</v>
+      </c>
+      <c r="G18" s="21">
+        <f>D18/C4</f>
+        <v>1.7005988023952097</v>
+      </c>
+      <c r="H18" s="21">
+        <f>E18/C4</f>
+        <v>1.7964071856287427</v>
+      </c>
+      <c r="I18" s="26">
+        <f>(H18-G18)*C18</f>
+        <v>9.5808383233533014</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="28">
+        <f>SUM(C8:C18)</f>
+        <v>4450</v>
+      </c>
+      <c r="D19" s="28">
+        <f t="shared" ref="D19:I19" si="2">SUM(D8:D18)</f>
+        <v>26.79</v>
+      </c>
+      <c r="E19" s="28">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="2"/>
+        <v>719.00000000000011</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="2"/>
+        <v>8.0209580838323351</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="2"/>
+        <v>8.9820359281437128</v>
+      </c>
+      <c r="I19" s="83">
+        <f t="shared" si="2"/>
+        <v>215.26946107784431</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>